--- a/xls-to-xml-test.xlsx
+++ b/xls-to-xml-test.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tino/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28520" windowHeight="20540"/>
+    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="15580"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="IDSheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>__version__</t>
   </si>
@@ -90,6 +86,30 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>KC ID</t>
+  </si>
+  <si>
+    <t>aZCyzqYa2aqEtf2945cna6</t>
+  </si>
+  <si>
+    <t>524fc08b8a0e4d8d857dded88d5fb882</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -131,11 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -228,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -440,10 +461,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F3:F6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -454,7 +475,7 @@
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -477,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -500,9 +521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>55</v>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -517,9 +538,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>22</v>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -534,9 +555,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>56</v>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -551,9 +572,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>24</v>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -570,5 +591,46 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>